--- a/Timeout details and performance/ACTIVE CONNECTIONS WASS.xlsx
+++ b/Timeout details and performance/ACTIVE CONNECTIONS WASS.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD05AF7-6B26-AE4D-B4AA-FDE31FB68059}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5592E9D3-0B2E-8B4A-AF3C-4BF33F59B7F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="720" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WASS" sheetId="6" r:id="rId1"/>
-    <sheet name="05" sheetId="152" r:id="rId2"/>
-    <sheet name="06" sheetId="153" r:id="rId3"/>
-    <sheet name="07" sheetId="154" r:id="rId4"/>
-    <sheet name="08" sheetId="155" r:id="rId5"/>
-    <sheet name="09" sheetId="156" r:id="rId6"/>
+    <sheet name="19" sheetId="152" r:id="rId2"/>
+    <sheet name="20" sheetId="153" r:id="rId3"/>
+    <sheet name="21" sheetId="154" r:id="rId4"/>
+    <sheet name="22" sheetId="155" r:id="rId5"/>
+    <sheet name="23" sheetId="156" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1291,19 +1291,19 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>43409</c:v>
+                  <c:v>43423</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43410</c:v>
+                  <c:v>43424</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43411</c:v>
+                  <c:v>43425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43412</c:v>
+                  <c:v>43426</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43413</c:v>
+                  <c:v>43427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1869,15 +1869,15 @@
   </sheetPr>
   <dimension ref="A3:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43409</v>
+        <v>43423</v>
       </c>
       <c r="B3">
         <v>363</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>43410</v>
+        <v>43424</v>
       </c>
       <c r="B4">
         <v>363</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43411</v>
+        <v>43425</v>
       </c>
       <c r="B5">
         <v>363</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43412</v>
+        <v>43426</v>
       </c>
       <c r="B6">
         <v>363</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43413</v>
+        <v>43427</v>
       </c>
       <c r="B7">
         <v>363</v>
